--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.709516000000001</v>
+        <v>8.307976</v>
       </c>
       <c r="H2">
-        <v>17.128548</v>
+        <v>24.923928</v>
       </c>
       <c r="I2">
-        <v>0.394755842864453</v>
+        <v>0.463503063770797</v>
       </c>
       <c r="J2">
-        <v>0.394755842864453</v>
+        <v>0.4635030637707969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N2">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P2">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q2">
-        <v>225.034286962884</v>
+        <v>590.2895569146212</v>
       </c>
       <c r="R2">
-        <v>2025.308582665956</v>
+        <v>5312.606012231592</v>
       </c>
       <c r="S2">
-        <v>0.2885708607024465</v>
+        <v>0.3819527418068641</v>
       </c>
       <c r="T2">
-        <v>0.2885708607024465</v>
+        <v>0.3819527418068641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.709516000000001</v>
+        <v>8.307976</v>
       </c>
       <c r="H3">
-        <v>17.128548</v>
+        <v>24.923928</v>
       </c>
       <c r="I3">
-        <v>0.394755842864453</v>
+        <v>0.463503063770797</v>
       </c>
       <c r="J3">
-        <v>0.394755842864453</v>
+        <v>0.4635030637707969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.223758</v>
       </c>
       <c r="O3">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P3">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q3">
-        <v>65.13369796037601</v>
+        <v>94.77672003126933</v>
       </c>
       <c r="R3">
-        <v>586.2032816433841</v>
+        <v>852.9904802814241</v>
       </c>
       <c r="S3">
-        <v>0.08352366003789881</v>
+        <v>0.06132622143041032</v>
       </c>
       <c r="T3">
-        <v>0.08352366003789879</v>
+        <v>0.06132622143041033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.709516000000001</v>
+        <v>8.307976</v>
       </c>
       <c r="H4">
-        <v>17.128548</v>
+        <v>24.923928</v>
       </c>
       <c r="I4">
-        <v>0.394755842864453</v>
+        <v>0.463503063770797</v>
       </c>
       <c r="J4">
-        <v>0.394755842864453</v>
+        <v>0.4635030637707969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N4">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O4">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P4">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q4">
-        <v>17.67182747912</v>
+        <v>31.25537281511733</v>
       </c>
       <c r="R4">
-        <v>159.04644731208</v>
+        <v>281.298355336056</v>
       </c>
       <c r="S4">
-        <v>0.0226613221241077</v>
+        <v>0.02022410053352256</v>
       </c>
       <c r="T4">
-        <v>0.02266132212410769</v>
+        <v>0.02022410053352255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>9.843847999999999</v>
       </c>
       <c r="I5">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="J5">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N5">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P5">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q5">
-        <v>129.3281436144507</v>
+        <v>233.1382386538302</v>
       </c>
       <c r="R5">
-        <v>1163.953292530056</v>
+        <v>2098.244147884472</v>
       </c>
       <c r="S5">
-        <v>0.165842877632363</v>
+        <v>0.150854421242511</v>
       </c>
       <c r="T5">
-        <v>0.165842877632363</v>
+        <v>0.150854421242511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.843847999999999</v>
       </c>
       <c r="I6">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="J6">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>34.223758</v>
       </c>
       <c r="O6">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P6">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q6">
         <v>37.43260797119822</v>
@@ -821,10 +821,10 @@
         <v>336.893471740784</v>
       </c>
       <c r="S6">
-        <v>0.04800139590447187</v>
+        <v>0.0242211421159338</v>
       </c>
       <c r="T6">
-        <v>0.04800139590447187</v>
+        <v>0.02422114211593381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.843847999999999</v>
       </c>
       <c r="I7">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="J7">
-        <v>0.2268678299100168</v>
+        <v>0.1830631876040579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N7">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O7">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P7">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q7">
-        <v>10.15607298334222</v>
+        <v>12.34448836376622</v>
       </c>
       <c r="R7">
-        <v>91.40465685008</v>
+        <v>111.100395273896</v>
       </c>
       <c r="S7">
-        <v>0.01302355637318197</v>
+        <v>0.007987624245613089</v>
       </c>
       <c r="T7">
-        <v>0.01302355637318197</v>
+        <v>0.007987624245613089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.083764</v>
+        <v>5.1529</v>
       </c>
       <c r="H8">
-        <v>12.251292</v>
+        <v>15.4587</v>
       </c>
       <c r="I8">
-        <v>0.2823513761726055</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="J8">
-        <v>0.2823513761726055</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N8">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O8">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P8">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q8">
-        <v>160.957061835836</v>
+        <v>366.1184213610333</v>
       </c>
       <c r="R8">
-        <v>1448.613556522524</v>
+        <v>3295.0657922493</v>
       </c>
       <c r="S8">
-        <v>0.2064019598834061</v>
+        <v>0.2369005740094326</v>
       </c>
       <c r="T8">
-        <v>0.2064019598834061</v>
+        <v>0.2369005740094326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.083764</v>
+        <v>5.1529</v>
       </c>
       <c r="H9">
-        <v>12.251292</v>
+        <v>15.4587</v>
       </c>
       <c r="I9">
-        <v>0.2823513761726055</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="J9">
-        <v>0.2823513761726055</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>34.223758</v>
       </c>
       <c r="O9">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P9">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q9">
-        <v>46.58725028837068</v>
+        <v>58.78386753273333</v>
       </c>
       <c r="R9">
-        <v>419.2852525953361</v>
+        <v>529.0548077946</v>
       </c>
       <c r="S9">
-        <v>0.05974077592759346</v>
+        <v>0.0380366874445426</v>
       </c>
       <c r="T9">
-        <v>0.05974077592759346</v>
+        <v>0.03803668744454261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.083764</v>
+        <v>5.1529</v>
       </c>
       <c r="H10">
-        <v>12.251292</v>
+        <v>15.4587</v>
       </c>
       <c r="I10">
-        <v>0.2823513761726055</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="J10">
-        <v>0.2823513761726055</v>
+        <v>0.2874809625478624</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N10">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O10">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P10">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q10">
-        <v>12.63987575714667</v>
+        <v>19.38568558443333</v>
       </c>
       <c r="R10">
-        <v>113.75888181432</v>
+        <v>174.4711702599</v>
       </c>
       <c r="S10">
-        <v>0.01620864036160588</v>
+        <v>0.01254370109388717</v>
       </c>
       <c r="T10">
-        <v>0.01620864036160587</v>
+        <v>0.01254370109388717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.388848333333333</v>
+        <v>1.182158666666667</v>
       </c>
       <c r="H11">
-        <v>4.166545</v>
+        <v>3.546476</v>
       </c>
       <c r="I11">
-        <v>0.09602495105292475</v>
+        <v>0.06595278607728289</v>
       </c>
       <c r="J11">
-        <v>0.09602495105292475</v>
+        <v>0.06595278607728287</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.413899</v>
+        <v>71.05094633333333</v>
       </c>
       <c r="N11">
-        <v>118.241697</v>
+        <v>213.152839</v>
       </c>
       <c r="O11">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932695</v>
       </c>
       <c r="P11">
-        <v>0.7310109930444597</v>
+        <v>0.8240565632932696</v>
       </c>
       <c r="Q11">
-        <v>54.73992793631834</v>
+        <v>83.99349198281823</v>
       </c>
       <c r="R11">
-        <v>492.659351426865</v>
+        <v>755.941427845364</v>
       </c>
       <c r="S11">
-        <v>0.07019529482624416</v>
+        <v>0.05434882623446192</v>
       </c>
       <c r="T11">
-        <v>0.07019529482624416</v>
+        <v>0.05434882623446192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.388848333333333</v>
+        <v>1.182158666666667</v>
       </c>
       <c r="H12">
-        <v>4.166545</v>
+        <v>3.546476</v>
       </c>
       <c r="I12">
-        <v>0.09602495105292475</v>
+        <v>0.06595278607728289</v>
       </c>
       <c r="J12">
-        <v>0.09602495105292475</v>
+        <v>0.06595278607728287</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>34.223758</v>
       </c>
       <c r="O12">
-        <v>0.2115830874897988</v>
+        <v>0.1323102827659759</v>
       </c>
       <c r="P12">
-        <v>0.2115830874897987</v>
+        <v>0.132310282765976</v>
       </c>
       <c r="Q12">
-        <v>15.84386975290111</v>
+        <v>13.48597070853423</v>
       </c>
       <c r="R12">
-        <v>142.59482777611</v>
+        <v>121.373736376808</v>
       </c>
       <c r="S12">
-        <v>0.02031725561983462</v>
+        <v>0.008726231775089219</v>
       </c>
       <c r="T12">
-        <v>0.02031725561983462</v>
+        <v>0.008726231775089219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.388848333333333</v>
+        <v>1.182158666666667</v>
       </c>
       <c r="H13">
-        <v>4.166545</v>
+        <v>3.546476</v>
       </c>
       <c r="I13">
-        <v>0.09602495105292475</v>
+        <v>0.06595278607728289</v>
       </c>
       <c r="J13">
-        <v>0.09602495105292475</v>
+        <v>0.06595278607728287</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.095153333333334</v>
+        <v>3.762092333333333</v>
       </c>
       <c r="N13">
-        <v>9.28546</v>
+        <v>11.286277</v>
       </c>
       <c r="O13">
-        <v>0.05740591946574151</v>
+        <v>0.04363315394075456</v>
       </c>
       <c r="P13">
-        <v>0.0574059194657415</v>
+        <v>0.04363315394075455</v>
       </c>
       <c r="Q13">
-        <v>4.298698548411112</v>
+        <v>4.447390056650223</v>
       </c>
       <c r="R13">
-        <v>38.68828693570001</v>
+        <v>40.026510509852</v>
       </c>
       <c r="S13">
-        <v>0.005512400606845969</v>
+        <v>0.002877728067731738</v>
       </c>
       <c r="T13">
-        <v>0.005512400606845967</v>
+        <v>0.002877728067731737</v>
       </c>
     </row>
   </sheetData>
